--- a/specifications/src/main/resources/vg1lista11sammanamn.xlsx
+++ b/specifications/src/main/resources/vg1lista11sammanamn.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Intyg\Statistik\Landstingsstatistik\Excelfiler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\statistik\specifications\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
     <t>enhet1</t>
   </si>
   <si>
-    <t>enhet5</t>
+    <t>enhet2</t>
   </si>
 </sst>
 </file>
@@ -372,7 +372,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
